--- a/Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/Financials/Yearly/SNP_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E289C202-E76E-4454-9308-8AD4805CED68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -300,9 +301,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -441,6 +442,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -476,6 +494,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,140 +686,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41639</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>343242900</v>
+        <v>429079900</v>
       </c>
       <c r="E8" s="3">
-        <v>280812400</v>
+        <v>350276200</v>
       </c>
       <c r="F8" s="3">
-        <v>293823100</v>
+        <v>286566500</v>
       </c>
       <c r="G8" s="3">
-        <v>410972700</v>
+        <v>299843900</v>
       </c>
       <c r="H8" s="3">
-        <v>418883600</v>
+        <v>419393900</v>
       </c>
       <c r="I8" s="3">
-        <v>405174500</v>
+        <v>427467000</v>
       </c>
       <c r="J8" s="3">
+        <v>413476900</v>
+      </c>
+      <c r="K8" s="3">
         <v>364401500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>270152100</v>
+        <v>353661200</v>
       </c>
       <c r="E9" s="3">
-        <v>212035200</v>
+        <v>275687800</v>
       </c>
       <c r="F9" s="3">
-        <v>227605100</v>
+        <v>216380000</v>
       </c>
       <c r="G9" s="3">
-        <v>341535200</v>
+        <v>232268900</v>
       </c>
       <c r="H9" s="3">
-        <v>347000200</v>
+        <v>348533600</v>
       </c>
       <c r="I9" s="3">
-        <v>342191800</v>
+        <v>354110600</v>
       </c>
       <c r="J9" s="3">
+        <v>349203700</v>
+      </c>
+      <c r="K9" s="3">
         <v>301487200</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>73090800</v>
+        <v>75418700</v>
       </c>
       <c r="E10" s="3">
-        <v>68777200</v>
+        <v>74588500</v>
       </c>
       <c r="F10" s="3">
-        <v>66218100</v>
+        <v>70186500</v>
       </c>
       <c r="G10" s="3">
-        <v>69437400</v>
+        <v>67574900</v>
       </c>
       <c r="H10" s="3">
-        <v>71883400</v>
+        <v>70860300</v>
       </c>
       <c r="I10" s="3">
-        <v>62982700</v>
+        <v>73356400</v>
       </c>
       <c r="J10" s="3">
+        <v>64273300</v>
+      </c>
+      <c r="K10" s="3">
         <v>62914300</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,35 +843,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1612700</v>
+        <v>1594500</v>
       </c>
       <c r="E12" s="3">
-        <v>1604800</v>
+        <v>1645700</v>
       </c>
       <c r="F12" s="3">
-        <v>1521100</v>
+        <v>1637700</v>
       </c>
       <c r="G12" s="3">
-        <v>1595200</v>
+        <v>1552200</v>
       </c>
       <c r="H12" s="3">
-        <v>1828500</v>
+        <v>1627900</v>
       </c>
       <c r="I12" s="3">
-        <v>2259000</v>
+        <v>1866000</v>
       </c>
       <c r="J12" s="3">
+        <v>2305300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1940200</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,63 +900,72 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>3091600</v>
+        <v>932200</v>
       </c>
       <c r="E14" s="3">
-        <v>-601600</v>
+        <v>3154900</v>
       </c>
       <c r="F14" s="3">
-        <v>748400</v>
+        <v>-614000</v>
       </c>
       <c r="G14" s="3">
-        <v>526300</v>
+        <v>763700</v>
       </c>
       <c r="H14" s="3">
-        <v>387000</v>
+        <v>537100</v>
       </c>
       <c r="I14" s="3">
-        <v>147500</v>
+        <v>394900</v>
       </c>
       <c r="J14" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K14" s="3">
         <v>408500</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16769500</v>
+        <v>16320200</v>
       </c>
       <c r="E15" s="3">
-        <v>15768200</v>
+        <v>17113200</v>
       </c>
       <c r="F15" s="3">
-        <v>14028200</v>
+        <v>16091400</v>
       </c>
       <c r="G15" s="3">
-        <v>13102800</v>
+        <v>14315600</v>
       </c>
       <c r="H15" s="3">
-        <v>11818400</v>
+        <v>13371300</v>
       </c>
       <c r="I15" s="3">
-        <v>10246400</v>
+        <v>12060500</v>
       </c>
       <c r="J15" s="3">
+        <v>10456400</v>
+      </c>
+      <c r="K15" s="3">
         <v>9280800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -914,62 +974,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>332849000</v>
+        <v>416871100</v>
       </c>
       <c r="E17" s="3">
-        <v>269586200</v>
+        <v>339669400</v>
       </c>
       <c r="F17" s="3">
-        <v>285559500</v>
+        <v>275110300</v>
       </c>
       <c r="G17" s="3">
-        <v>400285500</v>
+        <v>291410900</v>
       </c>
       <c r="H17" s="3">
-        <v>404808200</v>
+        <v>408487700</v>
       </c>
       <c r="I17" s="3">
-        <v>390826100</v>
+        <v>413103100</v>
       </c>
       <c r="J17" s="3">
+        <v>398834500</v>
+      </c>
+      <c r="K17" s="3">
         <v>349054300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>10393900</v>
+        <v>12208800</v>
       </c>
       <c r="E18" s="3">
-        <v>11226200</v>
+        <v>10606900</v>
       </c>
       <c r="F18" s="3">
-        <v>8263600</v>
+        <v>11456200</v>
       </c>
       <c r="G18" s="3">
-        <v>10687200</v>
+        <v>8433000</v>
       </c>
       <c r="H18" s="3">
-        <v>14075400</v>
+        <v>10906200</v>
       </c>
       <c r="I18" s="3">
-        <v>14348400</v>
+        <v>14363900</v>
       </c>
       <c r="J18" s="3">
+        <v>14642400</v>
+      </c>
+      <c r="K18" s="3">
         <v>15347200</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -981,143 +1048,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3035400</v>
+        <v>3373200</v>
       </c>
       <c r="E20" s="3">
-        <v>1617200</v>
+        <v>3097600</v>
       </c>
       <c r="F20" s="3">
-        <v>965800</v>
+        <v>1650300</v>
       </c>
       <c r="G20" s="3">
-        <v>323900</v>
+        <v>985600</v>
       </c>
       <c r="H20" s="3">
-        <v>1162300</v>
+        <v>330500</v>
       </c>
       <c r="I20" s="3">
-        <v>340500</v>
+        <v>1186100</v>
       </c>
       <c r="J20" s="3">
+        <v>347400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1095800</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>30248400</v>
+        <v>31930800</v>
       </c>
       <c r="E21" s="3">
-        <v>28658200</v>
+        <v>30847600</v>
       </c>
       <c r="F21" s="3">
-        <v>23299100</v>
+        <v>29226100</v>
       </c>
       <c r="G21" s="3">
-        <v>24152600</v>
+        <v>23759300</v>
       </c>
       <c r="H21" s="3">
-        <v>27091000</v>
+        <v>24631400</v>
       </c>
       <c r="I21" s="3">
-        <v>24965600</v>
+        <v>27631600</v>
       </c>
       <c r="J21" s="3">
+        <v>25464500</v>
+      </c>
+      <c r="K21" s="3">
         <v>25751200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>821000</v>
+        <v>873100</v>
       </c>
       <c r="E22" s="3">
-        <v>1187000</v>
+        <v>837800</v>
       </c>
       <c r="F22" s="3">
-        <v>1025600</v>
+        <v>1211300</v>
       </c>
       <c r="G22" s="3">
-        <v>1484800</v>
+        <v>1046600</v>
       </c>
       <c r="H22" s="3">
-        <v>1414300</v>
+        <v>1515300</v>
       </c>
       <c r="I22" s="3">
-        <v>1506800</v>
+        <v>1443300</v>
       </c>
       <c r="J22" s="3">
+        <v>1537700</v>
+      </c>
+      <c r="K22" s="3">
         <v>1236200</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>12608300</v>
+        <v>14708900</v>
       </c>
       <c r="E23" s="3">
-        <v>11656400</v>
+        <v>12866700</v>
       </c>
       <c r="F23" s="3">
-        <v>8203900</v>
+        <v>11895200</v>
       </c>
       <c r="G23" s="3">
-        <v>9526200</v>
+        <v>8372000</v>
       </c>
       <c r="H23" s="3">
-        <v>13823400</v>
+        <v>9721400</v>
       </c>
       <c r="I23" s="3">
-        <v>13182100</v>
+        <v>14106700</v>
       </c>
       <c r="J23" s="3">
+        <v>13452200</v>
+      </c>
+      <c r="K23" s="3">
         <v>15206900</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2367500</v>
+        <v>2999800</v>
       </c>
       <c r="E24" s="3">
-        <v>3011400</v>
+        <v>2416000</v>
       </c>
       <c r="F24" s="3">
-        <v>1834300</v>
+        <v>3073100</v>
       </c>
       <c r="G24" s="3">
-        <v>2555400</v>
+        <v>1871900</v>
       </c>
       <c r="H24" s="3">
-        <v>3601300</v>
+        <v>2607700</v>
       </c>
       <c r="I24" s="3">
-        <v>3467900</v>
+        <v>3675100</v>
       </c>
       <c r="J24" s="3">
+        <v>3539000</v>
+      </c>
+      <c r="K24" s="3">
         <v>3798600</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1142,63 +1225,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>10240900</v>
+        <v>11709100</v>
       </c>
       <c r="E26" s="3">
-        <v>8644900</v>
+        <v>10450700</v>
       </c>
       <c r="F26" s="3">
-        <v>6369500</v>
+        <v>8822100</v>
       </c>
       <c r="G26" s="3">
-        <v>6970900</v>
+        <v>6500100</v>
       </c>
       <c r="H26" s="3">
-        <v>10222100</v>
+        <v>7113700</v>
       </c>
       <c r="I26" s="3">
-        <v>9714100</v>
+        <v>10431600</v>
       </c>
       <c r="J26" s="3">
+        <v>9913200</v>
+      </c>
+      <c r="K26" s="3">
         <v>11408300</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>7452400</v>
+        <v>9144700</v>
       </c>
       <c r="E27" s="3">
-        <v>6787500</v>
+        <v>7605100</v>
       </c>
       <c r="F27" s="3">
-        <v>4728200</v>
+        <v>6926600</v>
       </c>
       <c r="G27" s="3">
-        <v>6757600</v>
+        <v>4825100</v>
       </c>
       <c r="H27" s="3">
-        <v>9617600</v>
+        <v>6896000</v>
       </c>
       <c r="I27" s="3">
-        <v>9289900</v>
+        <v>9814700</v>
       </c>
       <c r="J27" s="3">
+        <v>9480300</v>
+      </c>
+      <c r="K27" s="3">
         <v>10649100</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1223,9 +1315,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1250,9 +1345,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1277,9 +1375,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1304,63 +1405,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3035400</v>
+        <v>-3373200</v>
       </c>
       <c r="E32" s="3">
-        <v>-1617200</v>
+        <v>-3097600</v>
       </c>
       <c r="F32" s="3">
-        <v>-965800</v>
+        <v>-1650300</v>
       </c>
       <c r="G32" s="3">
-        <v>-323900</v>
+        <v>-985600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1162300</v>
+        <v>-330500</v>
       </c>
       <c r="I32" s="3">
-        <v>-340500</v>
+        <v>-1186100</v>
       </c>
       <c r="J32" s="3">
+        <v>-347400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1095800</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>7452400</v>
+        <v>9144700</v>
       </c>
       <c r="E33" s="3">
-        <v>6787500</v>
+        <v>7605100</v>
       </c>
       <c r="F33" s="3">
-        <v>4728200</v>
+        <v>6926600</v>
       </c>
       <c r="G33" s="3">
-        <v>6757600</v>
+        <v>4825100</v>
       </c>
       <c r="H33" s="3">
-        <v>9617600</v>
+        <v>6896000</v>
       </c>
       <c r="I33" s="3">
-        <v>9289900</v>
+        <v>9814700</v>
       </c>
       <c r="J33" s="3">
+        <v>9480300</v>
+      </c>
+      <c r="K33" s="3">
         <v>10649100</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1385,68 +1495,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>7452400</v>
+        <v>9144700</v>
       </c>
       <c r="E35" s="3">
-        <v>6787500</v>
+        <v>7605100</v>
       </c>
       <c r="F35" s="3">
-        <v>4728200</v>
+        <v>6926600</v>
       </c>
       <c r="G35" s="3">
-        <v>6757600</v>
+        <v>4825100</v>
       </c>
       <c r="H35" s="3">
-        <v>9617600</v>
+        <v>6896000</v>
       </c>
       <c r="I35" s="3">
-        <v>9289900</v>
+        <v>9814700</v>
       </c>
       <c r="J35" s="3">
+        <v>9480300</v>
+      </c>
+      <c r="K35" s="3">
         <v>10649100</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42004</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41639</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1458,8 +1577,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1471,251 +1591,279 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>16465300</v>
+        <v>16610300</v>
       </c>
       <c r="E41" s="3">
-        <v>18101400</v>
+        <v>16802700</v>
       </c>
       <c r="F41" s="3">
-        <v>10024900</v>
+        <v>18472300</v>
       </c>
       <c r="G41" s="3">
-        <v>1360500</v>
+        <v>10230300</v>
       </c>
       <c r="H41" s="3">
-        <v>2188100</v>
+        <v>1388400</v>
       </c>
       <c r="I41" s="3">
-        <v>1520600</v>
+        <v>2233000</v>
       </c>
       <c r="J41" s="3">
+        <v>1551800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3584400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>14976700</v>
+        <v>11995200</v>
       </c>
       <c r="E42" s="3">
-        <v>2622000</v>
+        <v>15283600</v>
       </c>
       <c r="F42" s="3">
-        <v>106600</v>
+        <v>2675700</v>
       </c>
       <c r="G42" s="3">
-        <v>108300</v>
+        <v>108800</v>
       </c>
       <c r="H42" s="3">
-        <v>8000</v>
+        <v>110600</v>
       </c>
       <c r="I42" s="3">
-        <v>59300</v>
+        <v>8200</v>
       </c>
       <c r="J42" s="3">
+        <v>60600</v>
+      </c>
+      <c r="K42" s="3">
         <v>80000</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>18212500</v>
+        <v>17601700</v>
       </c>
       <c r="E43" s="3">
-        <v>16193000</v>
+        <v>18585700</v>
       </c>
       <c r="F43" s="3">
-        <v>16071200</v>
+        <v>16524900</v>
       </c>
       <c r="G43" s="3">
-        <v>21698000</v>
+        <v>16400500</v>
       </c>
       <c r="H43" s="3">
-        <v>18487500</v>
+        <v>22142600</v>
       </c>
       <c r="I43" s="3">
-        <v>15314500</v>
+        <v>18866300</v>
       </c>
       <c r="J43" s="3">
+        <v>15628300</v>
+      </c>
+      <c r="K43" s="3">
         <v>13008700</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>27150800</v>
+        <v>27394100</v>
       </c>
       <c r="E44" s="3">
-        <v>22761400</v>
+        <v>27707100</v>
       </c>
       <c r="F44" s="3">
-        <v>21175800</v>
+        <v>23227800</v>
       </c>
       <c r="G44" s="3">
-        <v>27373300</v>
+        <v>21609700</v>
       </c>
       <c r="H44" s="3">
-        <v>32271800</v>
+        <v>27934200</v>
       </c>
       <c r="I44" s="3">
-        <v>31741800</v>
+        <v>32933100</v>
       </c>
       <c r="J44" s="3">
+        <v>32392300</v>
+      </c>
+      <c r="K44" s="3">
         <v>29582900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>134400</v>
+        <v>1215000</v>
       </c>
       <c r="E45" s="3">
-        <v>277300</v>
+        <v>137100</v>
       </c>
       <c r="F45" s="3">
-        <v>1145300</v>
+        <v>283000</v>
       </c>
       <c r="G45" s="3">
-        <v>1835600</v>
+        <v>1168700</v>
       </c>
       <c r="H45" s="3">
-        <v>1291400</v>
+        <v>1873200</v>
       </c>
       <c r="I45" s="3">
-        <v>4447800</v>
+        <v>1317900</v>
       </c>
       <c r="J45" s="3">
+        <v>4539000</v>
+      </c>
+      <c r="K45" s="3">
         <v>3590800</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>76939600</v>
+        <v>74816400</v>
       </c>
       <c r="E46" s="3">
-        <v>59955100</v>
+        <v>78516200</v>
       </c>
       <c r="F46" s="3">
-        <v>48523700</v>
+        <v>61183700</v>
       </c>
       <c r="G46" s="3">
-        <v>52375700</v>
+        <v>49518000</v>
       </c>
       <c r="H46" s="3">
-        <v>54246800</v>
+        <v>53449000</v>
       </c>
       <c r="I46" s="3">
-        <v>53084100</v>
+        <v>55358400</v>
       </c>
       <c r="J46" s="3">
+        <v>54171900</v>
+      </c>
+      <c r="K46" s="3">
         <v>49846900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>19307700</v>
+        <v>21841600</v>
       </c>
       <c r="E47" s="3">
-        <v>18647000</v>
+        <v>19703400</v>
       </c>
       <c r="F47" s="3">
-        <v>13853200</v>
+        <v>19029100</v>
       </c>
       <c r="G47" s="3">
-        <v>14426900</v>
+        <v>14137100</v>
       </c>
       <c r="H47" s="3">
-        <v>11496000</v>
+        <v>14722600</v>
       </c>
       <c r="I47" s="3">
-        <v>7591600</v>
+        <v>11731500</v>
       </c>
       <c r="J47" s="3">
+        <v>7747200</v>
+      </c>
+      <c r="K47" s="3">
         <v>6909800</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>111897000</v>
+        <v>112009000</v>
       </c>
       <c r="E48" s="3">
-        <v>119278000</v>
+        <v>114190000</v>
       </c>
       <c r="F48" s="3">
-        <v>128818000</v>
+        <v>121722000</v>
       </c>
       <c r="G48" s="3">
-        <v>128146000</v>
+        <v>131458000</v>
       </c>
       <c r="H48" s="3">
-        <v>120740000</v>
+        <v>130772000</v>
       </c>
       <c r="I48" s="3">
-        <v>110228000</v>
+        <v>123214000</v>
       </c>
       <c r="J48" s="3">
+        <v>112487000</v>
+      </c>
+      <c r="K48" s="3">
         <v>98492000</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1255600</v>
+        <v>1287600</v>
       </c>
       <c r="E49" s="3">
-        <v>923900</v>
+        <v>1281400</v>
       </c>
       <c r="F49" s="3">
-        <v>912000</v>
+        <v>942800</v>
       </c>
       <c r="G49" s="3">
-        <v>913400</v>
+        <v>930700</v>
       </c>
       <c r="H49" s="3">
-        <v>909700</v>
+        <v>932200</v>
       </c>
       <c r="I49" s="3">
-        <v>910000</v>
+        <v>928300</v>
       </c>
       <c r="J49" s="3">
+        <v>928600</v>
+      </c>
+      <c r="K49" s="3">
         <v>1194300</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1740,9 +1888,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1767,36 +1918,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>22634600</v>
+        <v>26360000</v>
       </c>
       <c r="E52" s="3">
-        <v>19138600</v>
+        <v>23098400</v>
       </c>
       <c r="F52" s="3">
-        <v>18369100</v>
+        <v>19530800</v>
       </c>
       <c r="G52" s="3">
-        <v>15210400</v>
+        <v>18745500</v>
       </c>
       <c r="H52" s="3">
-        <v>13725400</v>
+        <v>15522100</v>
       </c>
       <c r="I52" s="3">
-        <v>12401400</v>
+        <v>14006600</v>
       </c>
       <c r="J52" s="3">
+        <v>12655500</v>
+      </c>
+      <c r="K52" s="3">
         <v>10005700</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1821,36 +1978,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>232034000</v>
+        <v>236314000</v>
       </c>
       <c r="E54" s="3">
-        <v>217943000</v>
+        <v>236789000</v>
       </c>
       <c r="F54" s="3">
-        <v>210476000</v>
+        <v>222409000</v>
       </c>
       <c r="G54" s="3">
-        <v>211072000</v>
+        <v>214789000</v>
       </c>
       <c r="H54" s="3">
-        <v>201118000</v>
+        <v>215398000</v>
       </c>
       <c r="I54" s="3">
-        <v>184215000</v>
+        <v>205239000</v>
       </c>
       <c r="J54" s="3">
+        <v>187990000</v>
+      </c>
+      <c r="K54" s="3">
         <v>166449000</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1862,8 +2025,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -1875,170 +2039,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>30036400</v>
+        <v>28607100</v>
       </c>
       <c r="E57" s="3">
-        <v>26196200</v>
+        <v>30651900</v>
       </c>
       <c r="F57" s="3">
-        <v>19505700</v>
+        <v>26732900</v>
       </c>
       <c r="G57" s="3">
-        <v>29514000</v>
+        <v>19905300</v>
       </c>
       <c r="H57" s="3">
-        <v>30140400</v>
+        <v>30118800</v>
       </c>
       <c r="I57" s="3">
-        <v>33628100</v>
+        <v>30758000</v>
       </c>
       <c r="J57" s="3">
+        <v>34317100</v>
+      </c>
+      <c r="K57" s="3">
         <v>28025100</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>11728800</v>
+        <v>9071900</v>
       </c>
       <c r="E58" s="3">
-        <v>10880900</v>
+        <v>11969100</v>
       </c>
       <c r="F58" s="3">
-        <v>16789300</v>
+        <v>11103900</v>
       </c>
       <c r="G58" s="3">
-        <v>25908100</v>
+        <v>17133300</v>
       </c>
       <c r="H58" s="3">
-        <v>23831600</v>
+        <v>26438900</v>
       </c>
       <c r="I58" s="3">
-        <v>16867300</v>
+        <v>24319900</v>
       </c>
       <c r="J58" s="3">
+        <v>17212900</v>
+      </c>
+      <c r="K58" s="3">
         <v>11688600</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>42503700</v>
+        <v>46187300</v>
       </c>
       <c r="E59" s="3">
-        <v>33535400</v>
+        <v>43374600</v>
       </c>
       <c r="F59" s="3">
-        <v>31014700</v>
+        <v>34222600</v>
       </c>
       <c r="G59" s="3">
-        <v>32455000</v>
+        <v>31650200</v>
       </c>
       <c r="H59" s="3">
-        <v>29188100</v>
+        <v>33120100</v>
       </c>
       <c r="I59" s="3">
-        <v>24164500</v>
+        <v>29786200</v>
       </c>
       <c r="J59" s="3">
+        <v>24659700</v>
+      </c>
+      <c r="K59" s="3">
         <v>24892100</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>84268800</v>
+        <v>83866200</v>
       </c>
       <c r="E60" s="3">
-        <v>70612500</v>
+        <v>85995600</v>
       </c>
       <c r="F60" s="3">
-        <v>67309700</v>
+        <v>72059400</v>
       </c>
       <c r="G60" s="3">
-        <v>87877100</v>
+        <v>68688900</v>
       </c>
       <c r="H60" s="3">
-        <v>83160100</v>
+        <v>89677800</v>
       </c>
       <c r="I60" s="3">
-        <v>74659800</v>
+        <v>84864100</v>
       </c>
       <c r="J60" s="3">
+        <v>76189700</v>
+      </c>
+      <c r="K60" s="3">
         <v>64605800</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>14415600</v>
+        <v>13880300</v>
       </c>
       <c r="E61" s="3">
-        <v>17080200</v>
+        <v>14711000</v>
       </c>
       <c r="F61" s="3">
-        <v>20323300</v>
+        <v>17430200</v>
       </c>
       <c r="G61" s="3">
-        <v>21950000</v>
+        <v>20739700</v>
       </c>
       <c r="H61" s="3">
-        <v>21173200</v>
+        <v>22399800</v>
       </c>
       <c r="I61" s="3">
-        <v>23576500</v>
+        <v>21607000</v>
       </c>
       <c r="J61" s="3">
+        <v>24059600</v>
+      </c>
+      <c r="K61" s="3">
         <v>22462700</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>9313900</v>
+        <v>11449500</v>
       </c>
       <c r="E62" s="3">
-        <v>9363500</v>
+        <v>9504800</v>
       </c>
       <c r="F62" s="3">
-        <v>8221000</v>
+        <v>9555400</v>
       </c>
       <c r="G62" s="3">
-        <v>7359000</v>
+        <v>8389500</v>
       </c>
       <c r="H62" s="3">
-        <v>6381200</v>
+        <v>7509800</v>
       </c>
       <c r="I62" s="3">
-        <v>6277900</v>
+        <v>6511900</v>
       </c>
       <c r="J62" s="3">
+        <v>6406600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5597200</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2063,9 +2246,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2090,9 +2276,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2117,36 +2306,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>126435000</v>
+        <v>129862000</v>
       </c>
       <c r="E66" s="3">
-        <v>114543000</v>
+        <v>129025000</v>
       </c>
       <c r="F66" s="3">
-        <v>112137000</v>
+        <v>116890000</v>
       </c>
       <c r="G66" s="3">
-        <v>124827000</v>
+        <v>114435000</v>
       </c>
       <c r="H66" s="3">
-        <v>118397000</v>
+        <v>127384000</v>
       </c>
       <c r="I66" s="3">
-        <v>109913000</v>
+        <v>120823000</v>
       </c>
       <c r="J66" s="3">
+        <v>112165000</v>
+      </c>
+      <c r="K66" s="3">
         <v>97758000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2158,8 +2353,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2184,9 +2380,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2211,9 +2410,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2238,9 +2440,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2265,36 +2470,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>79870000</v>
+        <v>80195300</v>
       </c>
       <c r="E72" s="3">
-        <v>77608600</v>
+        <v>81506600</v>
       </c>
       <c r="F72" s="3">
-        <v>73595900</v>
+        <v>79198800</v>
       </c>
       <c r="G72" s="3">
-        <v>63860600</v>
+        <v>75103900</v>
       </c>
       <c r="H72" s="3">
-        <v>60557100</v>
+        <v>65169200</v>
       </c>
       <c r="I72" s="3">
-        <v>57450200</v>
+        <v>61797900</v>
       </c>
       <c r="J72" s="3">
+        <v>58627400</v>
+      </c>
+      <c r="K72" s="3">
         <v>52025800</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2319,9 +2530,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2346,9 +2560,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2373,36 +2590,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>105600000</v>
+        <v>106452000</v>
       </c>
       <c r="E76" s="3">
-        <v>103400000</v>
+        <v>107764000</v>
       </c>
       <c r="F76" s="3">
-        <v>98339300</v>
+        <v>105519000</v>
       </c>
       <c r="G76" s="3">
-        <v>86246000</v>
+        <v>100354000</v>
       </c>
       <c r="H76" s="3">
-        <v>82721000</v>
+        <v>88013200</v>
       </c>
       <c r="I76" s="3">
-        <v>74302200</v>
+        <v>84416100</v>
       </c>
       <c r="J76" s="3">
+        <v>75824700</v>
+      </c>
+      <c r="K76" s="3">
         <v>68690700</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2427,68 +2650,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42004</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41639</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>7452400</v>
+        <v>9144700</v>
       </c>
       <c r="E81" s="3">
-        <v>6787500</v>
+        <v>7605100</v>
       </c>
       <c r="F81" s="3">
-        <v>4728200</v>
+        <v>6926600</v>
       </c>
       <c r="G81" s="3">
-        <v>6757600</v>
+        <v>4825100</v>
       </c>
       <c r="H81" s="3">
-        <v>9617600</v>
+        <v>6896000</v>
       </c>
       <c r="I81" s="3">
-        <v>9289900</v>
+        <v>9814700</v>
       </c>
       <c r="J81" s="3">
+        <v>9480300</v>
+      </c>
+      <c r="K81" s="3">
         <v>10649100</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2500,35 +2732,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16769500</v>
+        <v>16320200</v>
       </c>
       <c r="E83" s="3">
-        <v>15768200</v>
+        <v>17113200</v>
       </c>
       <c r="F83" s="3">
-        <v>14028200</v>
+        <v>16091400</v>
       </c>
       <c r="G83" s="3">
-        <v>13102800</v>
+        <v>14315600</v>
       </c>
       <c r="H83" s="3">
-        <v>11818400</v>
+        <v>13371300</v>
       </c>
       <c r="I83" s="3">
-        <v>10246400</v>
+        <v>12060500</v>
       </c>
       <c r="J83" s="3">
+        <v>10456400</v>
+      </c>
+      <c r="K83" s="3">
         <v>9280800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2553,9 +2789,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2580,9 +2819,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2607,9 +2849,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2634,9 +2879,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2661,36 +2909,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>27767700</v>
+        <v>26100600</v>
       </c>
       <c r="E89" s="3">
-        <v>31201000</v>
+        <v>28336700</v>
       </c>
       <c r="F89" s="3">
-        <v>24103600</v>
+        <v>31840300</v>
       </c>
       <c r="G89" s="3">
-        <v>21574100</v>
+        <v>24597500</v>
       </c>
       <c r="H89" s="3">
-        <v>22089800</v>
+        <v>22016200</v>
       </c>
       <c r="I89" s="3">
-        <v>20706300</v>
+        <v>22542400</v>
       </c>
       <c r="J89" s="3">
+        <v>21130600</v>
+      </c>
+      <c r="K89" s="3">
         <v>21905000</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2702,35 +2956,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-9240800</v>
+        <v>-14062300</v>
       </c>
       <c r="E91" s="3">
-        <v>-9520900</v>
+        <v>-9430100</v>
       </c>
       <c r="F91" s="3">
-        <v>-13887800</v>
+        <v>-9716000</v>
       </c>
       <c r="G91" s="3">
-        <v>-16440400</v>
+        <v>-14172400</v>
       </c>
       <c r="H91" s="3">
-        <v>-21083300</v>
+        <v>-16777300</v>
       </c>
       <c r="I91" s="3">
-        <v>-21183800</v>
+        <v>-21515300</v>
       </c>
       <c r="J91" s="3">
+        <v>-21617800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-19158500</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2755,9 +3013,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -2782,36 +3043,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-21134300</v>
+        <v>-9857700</v>
       </c>
       <c r="E94" s="3">
-        <v>-9629900</v>
+        <v>-21567400</v>
       </c>
       <c r="F94" s="3">
-        <v>-16974400</v>
+        <v>-9827300</v>
       </c>
       <c r="G94" s="3">
-        <v>-19288800</v>
+        <v>-17322300</v>
       </c>
       <c r="H94" s="3">
-        <v>-25994200</v>
+        <v>-19684100</v>
       </c>
       <c r="I94" s="3">
-        <v>-23588300</v>
+        <v>-26526800</v>
       </c>
       <c r="J94" s="3">
+        <v>-24071700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-20425500</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -2823,35 +3090,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-4754000</v>
+        <v>-10062000</v>
       </c>
       <c r="E96" s="3">
-        <v>-2454300</v>
+        <v>-4851400</v>
       </c>
       <c r="F96" s="3">
-        <v>-3521400</v>
+        <v>-2504600</v>
       </c>
       <c r="G96" s="3">
-        <v>-4076500</v>
+        <v>-3593600</v>
       </c>
       <c r="H96" s="3">
-        <v>-4115400</v>
+        <v>-4160100</v>
       </c>
       <c r="I96" s="3">
-        <v>-3706400</v>
+        <v>-4199700</v>
       </c>
       <c r="J96" s="3">
+        <v>-3782400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2831400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -2876,9 +3147,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -2903,9 +3177,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -2930,88 +3207,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-8218100</v>
+        <v>-16512100</v>
       </c>
       <c r="E100" s="3">
-        <v>-13531800</v>
+        <v>-8386500</v>
       </c>
       <c r="F100" s="3">
-        <v>1322400</v>
+        <v>-13809100</v>
       </c>
       <c r="G100" s="3">
-        <v>-3115300</v>
+        <v>1349500</v>
       </c>
       <c r="H100" s="3">
-        <v>4583800</v>
+        <v>-3179100</v>
       </c>
       <c r="I100" s="3">
-        <v>818500</v>
+        <v>4677700</v>
       </c>
       <c r="J100" s="3">
+        <v>835300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-365900</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>-51300</v>
+        <v>76900</v>
       </c>
       <c r="E101" s="3">
-        <v>37200</v>
+        <v>-52400</v>
       </c>
       <c r="F101" s="3">
-        <v>42600</v>
+        <v>38000</v>
       </c>
       <c r="G101" s="3">
-        <v>2300</v>
+        <v>43500</v>
       </c>
       <c r="H101" s="3">
-        <v>-11900</v>
+        <v>2400</v>
       </c>
       <c r="I101" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-2600</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-1636100</v>
+        <v>-192300</v>
       </c>
       <c r="E102" s="3">
-        <v>8076500</v>
+        <v>-1669600</v>
       </c>
       <c r="F102" s="3">
-        <v>8494100</v>
+        <v>8241900</v>
       </c>
       <c r="G102" s="3">
-        <v>-827600</v>
+        <v>8668200</v>
       </c>
       <c r="H102" s="3">
-        <v>667500</v>
+        <v>-844600</v>
       </c>
       <c r="I102" s="3">
-        <v>-2063800</v>
+        <v>681200</v>
       </c>
       <c r="J102" s="3">
+        <v>-2106100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1110900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/SNP_YR_FIN.xlsx
+++ b/Financials/Yearly/SNP_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E289C202-E76E-4454-9308-8AD4805CED68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="SNP" sheetId="6" r:id="rId1"/>
@@ -301,7 +300,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -442,23 +441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -494,23 +476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,32 +651,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -741,97 +706,97 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>429079900</v>
+        <v>414826400</v>
       </c>
       <c r="E8" s="3">
-        <v>350276200</v>
+        <v>338640500</v>
       </c>
       <c r="F8" s="3">
-        <v>286566500</v>
+        <v>277047100</v>
       </c>
       <c r="G8" s="3">
-        <v>299843900</v>
+        <v>289883400</v>
       </c>
       <c r="H8" s="3">
-        <v>419393900</v>
+        <v>405462100</v>
       </c>
       <c r="I8" s="3">
-        <v>427467000</v>
+        <v>413267000</v>
       </c>
       <c r="J8" s="3">
-        <v>413476900</v>
+        <v>399741700</v>
       </c>
       <c r="K8" s="3">
         <v>364401500</v>
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>353661200</v>
+        <v>349545800</v>
       </c>
       <c r="E9" s="3">
-        <v>275687800</v>
+        <v>274088600</v>
       </c>
       <c r="F9" s="3">
-        <v>216380000</v>
+        <v>216316900</v>
       </c>
       <c r="G9" s="3">
-        <v>232268900</v>
+        <v>232438000</v>
       </c>
       <c r="H9" s="3">
-        <v>348533600</v>
+        <v>344734800</v>
       </c>
       <c r="I9" s="3">
-        <v>354110600</v>
+        <v>350338700</v>
       </c>
       <c r="J9" s="3">
-        <v>349203700</v>
+        <v>337603600</v>
       </c>
       <c r="K9" s="3">
         <v>301487200</v>
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>75418700</v>
+        <v>65280500</v>
       </c>
       <c r="E10" s="3">
-        <v>74588500</v>
+        <v>64551900</v>
       </c>
       <c r="F10" s="3">
-        <v>70186500</v>
+        <v>60730200</v>
       </c>
       <c r="G10" s="3">
-        <v>67574900</v>
+        <v>57445400</v>
       </c>
       <c r="H10" s="3">
-        <v>70860300</v>
+        <v>60727300</v>
       </c>
       <c r="I10" s="3">
-        <v>73356400</v>
+        <v>62928300</v>
       </c>
       <c r="J10" s="3">
-        <v>64273300</v>
+        <v>62138200</v>
       </c>
       <c r="K10" s="3">
         <v>62914300</v>
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,37 +810,37 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1594500</v>
+        <v>1541500</v>
       </c>
       <c r="E12" s="3">
-        <v>1645700</v>
+        <v>1591000</v>
       </c>
       <c r="F12" s="3">
-        <v>1637700</v>
+        <v>1583300</v>
       </c>
       <c r="G12" s="3">
-        <v>1552200</v>
+        <v>1500700</v>
       </c>
       <c r="H12" s="3">
-        <v>1627900</v>
+        <v>1573800</v>
       </c>
       <c r="I12" s="3">
-        <v>1866000</v>
+        <v>1804000</v>
       </c>
       <c r="J12" s="3">
-        <v>2305300</v>
+        <v>2228700</v>
       </c>
       <c r="K12" s="3">
         <v>1940200</v>
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -905,67 +870,67 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>932200</v>
+        <v>901200</v>
       </c>
       <c r="E14" s="3">
-        <v>3154900</v>
+        <v>3050100</v>
       </c>
       <c r="F14" s="3">
-        <v>-614000</v>
+        <v>-593600</v>
       </c>
       <c r="G14" s="3">
-        <v>763700</v>
+        <v>738300</v>
       </c>
       <c r="H14" s="3">
-        <v>537100</v>
+        <v>519300</v>
       </c>
       <c r="I14" s="3">
-        <v>394900</v>
+        <v>381800</v>
       </c>
       <c r="J14" s="3">
-        <v>150500</v>
+        <v>145500</v>
       </c>
       <c r="K14" s="3">
         <v>408500</v>
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>16320200</v>
+        <v>15778100</v>
       </c>
       <c r="E15" s="3">
-        <v>17113200</v>
+        <v>16544700</v>
       </c>
       <c r="F15" s="3">
-        <v>16091400</v>
+        <v>15556800</v>
       </c>
       <c r="G15" s="3">
-        <v>14315600</v>
+        <v>13840100</v>
       </c>
       <c r="H15" s="3">
-        <v>13371300</v>
+        <v>12927100</v>
       </c>
       <c r="I15" s="3">
-        <v>12060500</v>
+        <v>11659900</v>
       </c>
       <c r="J15" s="3">
-        <v>10456400</v>
+        <v>10109000</v>
       </c>
       <c r="K15" s="3">
         <v>9280800</v>
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -976,67 +941,67 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>416871100</v>
+        <v>403023100</v>
       </c>
       <c r="E17" s="3">
-        <v>339669400</v>
+        <v>328386000</v>
       </c>
       <c r="F17" s="3">
-        <v>275110300</v>
+        <v>265971500</v>
       </c>
       <c r="G17" s="3">
-        <v>291410900</v>
+        <v>281730600</v>
       </c>
       <c r="H17" s="3">
-        <v>408487700</v>
+        <v>394918200</v>
       </c>
       <c r="I17" s="3">
-        <v>413103100</v>
+        <v>399380300</v>
       </c>
       <c r="J17" s="3">
-        <v>398834500</v>
+        <v>385585700</v>
       </c>
       <c r="K17" s="3">
         <v>349054300</v>
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>12208800</v>
+        <v>11803200</v>
       </c>
       <c r="E18" s="3">
-        <v>10606900</v>
+        <v>10254500</v>
       </c>
       <c r="F18" s="3">
-        <v>11456200</v>
+        <v>11075700</v>
       </c>
       <c r="G18" s="3">
-        <v>8433000</v>
+        <v>8152800</v>
       </c>
       <c r="H18" s="3">
-        <v>10906200</v>
+        <v>10543900</v>
       </c>
       <c r="I18" s="3">
-        <v>14363900</v>
+        <v>13886700</v>
       </c>
       <c r="J18" s="3">
-        <v>14642400</v>
+        <v>14156000</v>
       </c>
       <c r="K18" s="3">
         <v>15347200</v>
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,157 +1015,157 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>3373200</v>
+        <v>3261200</v>
       </c>
       <c r="E20" s="3">
-        <v>3097600</v>
+        <v>2994700</v>
       </c>
       <c r="F20" s="3">
-        <v>1650300</v>
+        <v>1595500</v>
       </c>
       <c r="G20" s="3">
-        <v>985600</v>
+        <v>952900</v>
       </c>
       <c r="H20" s="3">
-        <v>330500</v>
+        <v>319500</v>
       </c>
       <c r="I20" s="3">
-        <v>1186100</v>
+        <v>1146700</v>
       </c>
       <c r="J20" s="3">
-        <v>347400</v>
+        <v>335900</v>
       </c>
       <c r="K20" s="3">
         <v>1095800</v>
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>31930800</v>
+        <v>30837000</v>
       </c>
       <c r="E21" s="3">
-        <v>30847600</v>
+        <v>29788100</v>
       </c>
       <c r="F21" s="3">
-        <v>29226100</v>
+        <v>28222500</v>
       </c>
       <c r="G21" s="3">
-        <v>23759300</v>
+        <v>22940900</v>
       </c>
       <c r="H21" s="3">
-        <v>24631400</v>
+        <v>23786100</v>
       </c>
       <c r="I21" s="3">
-        <v>27631600</v>
+        <v>26689200</v>
       </c>
       <c r="J21" s="3">
-        <v>25464500</v>
+        <v>24597400</v>
       </c>
       <c r="K21" s="3">
         <v>25751200</v>
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>873100</v>
+        <v>844100</v>
       </c>
       <c r="E22" s="3">
-        <v>837800</v>
+        <v>809900</v>
       </c>
       <c r="F22" s="3">
-        <v>1211300</v>
+        <v>1171100</v>
       </c>
       <c r="G22" s="3">
-        <v>1046600</v>
+        <v>1011800</v>
       </c>
       <c r="H22" s="3">
-        <v>1515300</v>
+        <v>1464900</v>
       </c>
       <c r="I22" s="3">
-        <v>1443300</v>
+        <v>1395300</v>
       </c>
       <c r="J22" s="3">
-        <v>1537700</v>
+        <v>1486600</v>
       </c>
       <c r="K22" s="3">
         <v>1236200</v>
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>14708900</v>
+        <v>14220300</v>
       </c>
       <c r="E23" s="3">
-        <v>12866700</v>
+        <v>12439300</v>
       </c>
       <c r="F23" s="3">
-        <v>11895200</v>
+        <v>11500100</v>
       </c>
       <c r="G23" s="3">
-        <v>8372000</v>
+        <v>8093900</v>
       </c>
       <c r="H23" s="3">
-        <v>9721400</v>
+        <v>9398500</v>
       </c>
       <c r="I23" s="3">
-        <v>14106700</v>
+        <v>13638100</v>
       </c>
       <c r="J23" s="3">
-        <v>13452200</v>
+        <v>13005300</v>
       </c>
       <c r="K23" s="3">
         <v>15206900</v>
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>2999800</v>
+        <v>2900200</v>
       </c>
       <c r="E24" s="3">
-        <v>2416000</v>
+        <v>2335700</v>
       </c>
       <c r="F24" s="3">
-        <v>3073100</v>
+        <v>2971000</v>
       </c>
       <c r="G24" s="3">
-        <v>1871900</v>
+        <v>1809700</v>
       </c>
       <c r="H24" s="3">
-        <v>2607700</v>
+        <v>2521100</v>
       </c>
       <c r="I24" s="3">
-        <v>3675100</v>
+        <v>3553000</v>
       </c>
       <c r="J24" s="3">
-        <v>3539000</v>
+        <v>3421400</v>
       </c>
       <c r="K24" s="3">
         <v>3798600</v>
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1230,67 +1195,67 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>11709100</v>
+        <v>11320100</v>
       </c>
       <c r="E26" s="3">
-        <v>10450700</v>
+        <v>10103600</v>
       </c>
       <c r="F26" s="3">
-        <v>8822100</v>
+        <v>8529000</v>
       </c>
       <c r="G26" s="3">
-        <v>6500100</v>
+        <v>6284100</v>
       </c>
       <c r="H26" s="3">
-        <v>7113700</v>
+        <v>6877400</v>
       </c>
       <c r="I26" s="3">
-        <v>10431600</v>
+        <v>10085100</v>
       </c>
       <c r="J26" s="3">
-        <v>9913200</v>
+        <v>9583900</v>
       </c>
       <c r="K26" s="3">
         <v>11408300</v>
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>9144700</v>
+        <v>8841000</v>
       </c>
       <c r="E27" s="3">
-        <v>7605100</v>
+        <v>7352500</v>
       </c>
       <c r="F27" s="3">
-        <v>6926600</v>
+        <v>6696500</v>
       </c>
       <c r="G27" s="3">
-        <v>4825100</v>
+        <v>4664800</v>
       </c>
       <c r="H27" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="I27" s="3">
-        <v>9814700</v>
+        <v>9488600</v>
       </c>
       <c r="J27" s="3">
-        <v>9480300</v>
+        <v>9165400</v>
       </c>
       <c r="K27" s="3">
         <v>10649100</v>
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1320,7 +1285,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1350,7 +1315,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,7 +1345,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1410,67 +1375,67 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-3373200</v>
+        <v>-3261200</v>
       </c>
       <c r="E32" s="3">
-        <v>-3097600</v>
+        <v>-2994700</v>
       </c>
       <c r="F32" s="3">
-        <v>-1650300</v>
+        <v>-1595500</v>
       </c>
       <c r="G32" s="3">
-        <v>-985600</v>
+        <v>-952900</v>
       </c>
       <c r="H32" s="3">
-        <v>-330500</v>
+        <v>-319500</v>
       </c>
       <c r="I32" s="3">
-        <v>-1186100</v>
+        <v>-1146700</v>
       </c>
       <c r="J32" s="3">
-        <v>-347400</v>
+        <v>-335900</v>
       </c>
       <c r="K32" s="3">
         <v>-1095800</v>
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>9144700</v>
+        <v>8841000</v>
       </c>
       <c r="E33" s="3">
-        <v>7605100</v>
+        <v>7352500</v>
       </c>
       <c r="F33" s="3">
-        <v>6926600</v>
+        <v>6696500</v>
       </c>
       <c r="G33" s="3">
-        <v>4825100</v>
+        <v>4664800</v>
       </c>
       <c r="H33" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="I33" s="3">
-        <v>9814700</v>
+        <v>9488600</v>
       </c>
       <c r="J33" s="3">
-        <v>9480300</v>
+        <v>9165400</v>
       </c>
       <c r="K33" s="3">
         <v>10649100</v>
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1500,42 +1465,42 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>9144700</v>
+        <v>8841000</v>
       </c>
       <c r="E35" s="3">
-        <v>7605100</v>
+        <v>7352500</v>
       </c>
       <c r="F35" s="3">
-        <v>6926600</v>
+        <v>6696500</v>
       </c>
       <c r="G35" s="3">
-        <v>4825100</v>
+        <v>4664800</v>
       </c>
       <c r="H35" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="I35" s="3">
-        <v>9814700</v>
+        <v>9488600</v>
       </c>
       <c r="J35" s="3">
-        <v>9480300</v>
+        <v>9165400</v>
       </c>
       <c r="K35" s="3">
         <v>10649100</v>
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1565,7 +1530,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1579,7 +1544,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1593,277 +1558,277 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>16610300</v>
+        <v>16058600</v>
       </c>
       <c r="E41" s="3">
-        <v>16802700</v>
+        <v>16244500</v>
       </c>
       <c r="F41" s="3">
-        <v>18472300</v>
+        <v>17858700</v>
       </c>
       <c r="G41" s="3">
-        <v>10230300</v>
+        <v>9890500</v>
       </c>
       <c r="H41" s="3">
-        <v>1388400</v>
+        <v>1342300</v>
       </c>
       <c r="I41" s="3">
-        <v>2233000</v>
+        <v>2158800</v>
       </c>
       <c r="J41" s="3">
-        <v>1551800</v>
+        <v>1500200</v>
       </c>
       <c r="K41" s="3">
         <v>3584400</v>
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>11995200</v>
+        <v>11596800</v>
       </c>
       <c r="E42" s="3">
-        <v>15283600</v>
+        <v>14775900</v>
       </c>
       <c r="F42" s="3">
-        <v>2675700</v>
+        <v>2586800</v>
       </c>
       <c r="G42" s="3">
-        <v>108800</v>
+        <v>105200</v>
       </c>
       <c r="H42" s="3">
-        <v>110600</v>
+        <v>106900</v>
       </c>
       <c r="I42" s="3">
-        <v>8200</v>
+        <v>7900</v>
       </c>
       <c r="J42" s="3">
-        <v>60600</v>
+        <v>58500</v>
       </c>
       <c r="K42" s="3">
         <v>80000</v>
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>17601700</v>
+        <v>17017000</v>
       </c>
       <c r="E43" s="3">
-        <v>18585700</v>
+        <v>17968300</v>
       </c>
       <c r="F43" s="3">
-        <v>16524900</v>
+        <v>15975900</v>
       </c>
       <c r="G43" s="3">
-        <v>16400500</v>
+        <v>15855700</v>
       </c>
       <c r="H43" s="3">
-        <v>22142600</v>
+        <v>21407100</v>
       </c>
       <c r="I43" s="3">
-        <v>18866300</v>
+        <v>18239600</v>
       </c>
       <c r="J43" s="3">
-        <v>15628300</v>
+        <v>15109200</v>
       </c>
       <c r="K43" s="3">
         <v>13008700</v>
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>27394100</v>
+        <v>26484100</v>
       </c>
       <c r="E44" s="3">
-        <v>27707100</v>
+        <v>26786700</v>
       </c>
       <c r="F44" s="3">
-        <v>23227800</v>
+        <v>22456200</v>
       </c>
       <c r="G44" s="3">
-        <v>21609700</v>
+        <v>20891800</v>
       </c>
       <c r="H44" s="3">
-        <v>27934200</v>
+        <v>27006200</v>
       </c>
       <c r="I44" s="3">
-        <v>32933100</v>
+        <v>31839100</v>
       </c>
       <c r="J44" s="3">
-        <v>32392300</v>
+        <v>31316200</v>
       </c>
       <c r="K44" s="3">
         <v>29582900</v>
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>1215000</v>
+        <v>1174700</v>
       </c>
       <c r="E45" s="3">
-        <v>137100</v>
+        <v>132600</v>
       </c>
       <c r="F45" s="3">
-        <v>283000</v>
+        <v>273600</v>
       </c>
       <c r="G45" s="3">
-        <v>1168700</v>
+        <v>1129900</v>
       </c>
       <c r="H45" s="3">
-        <v>1873200</v>
+        <v>1811000</v>
       </c>
       <c r="I45" s="3">
-        <v>1317900</v>
+        <v>1274100</v>
       </c>
       <c r="J45" s="3">
-        <v>4539000</v>
+        <v>4388200</v>
       </c>
       <c r="K45" s="3">
         <v>3590800</v>
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>74816400</v>
+        <v>72331100</v>
       </c>
       <c r="E46" s="3">
-        <v>78516200</v>
+        <v>75908000</v>
       </c>
       <c r="F46" s="3">
-        <v>61183700</v>
+        <v>59151200</v>
       </c>
       <c r="G46" s="3">
-        <v>49518000</v>
+        <v>47873100</v>
       </c>
       <c r="H46" s="3">
-        <v>53449000</v>
+        <v>51673500</v>
       </c>
       <c r="I46" s="3">
-        <v>55358400</v>
+        <v>53519500</v>
       </c>
       <c r="J46" s="3">
-        <v>54171900</v>
+        <v>52372400</v>
       </c>
       <c r="K46" s="3">
         <v>49846900</v>
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>21841600</v>
+        <v>21116100</v>
       </c>
       <c r="E47" s="3">
-        <v>19703400</v>
+        <v>19048800</v>
       </c>
       <c r="F47" s="3">
-        <v>19029100</v>
+        <v>18397000</v>
       </c>
       <c r="G47" s="3">
-        <v>14137100</v>
+        <v>13667500</v>
       </c>
       <c r="H47" s="3">
-        <v>14722600</v>
+        <v>14233500</v>
       </c>
       <c r="I47" s="3">
-        <v>11731500</v>
+        <v>11341800</v>
       </c>
       <c r="J47" s="3">
-        <v>7747200</v>
+        <v>7489800</v>
       </c>
       <c r="K47" s="3">
         <v>6909800</v>
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>112009000</v>
+        <v>108288000</v>
       </c>
       <c r="E48" s="3">
-        <v>114190000</v>
+        <v>110396000</v>
       </c>
       <c r="F48" s="3">
-        <v>121722000</v>
+        <v>117679000</v>
       </c>
       <c r="G48" s="3">
-        <v>131458000</v>
+        <v>127091000</v>
       </c>
       <c r="H48" s="3">
-        <v>130772000</v>
+        <v>126428000</v>
       </c>
       <c r="I48" s="3">
-        <v>123214000</v>
+        <v>119121000</v>
       </c>
       <c r="J48" s="3">
-        <v>112487000</v>
+        <v>108750000</v>
       </c>
       <c r="K48" s="3">
         <v>98492000</v>
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
-        <v>1287600</v>
+        <v>1244800</v>
       </c>
       <c r="E49" s="3">
-        <v>1281400</v>
+        <v>1238800</v>
       </c>
       <c r="F49" s="3">
-        <v>942800</v>
+        <v>911500</v>
       </c>
       <c r="G49" s="3">
-        <v>930700</v>
+        <v>899800</v>
       </c>
       <c r="H49" s="3">
-        <v>932200</v>
+        <v>901200</v>
       </c>
       <c r="I49" s="3">
-        <v>928300</v>
+        <v>897500</v>
       </c>
       <c r="J49" s="3">
-        <v>928600</v>
+        <v>897800</v>
       </c>
       <c r="K49" s="3">
         <v>1194300</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1893,7 +1858,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1923,37 +1888,37 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
-        <v>26360000</v>
+        <v>25484300</v>
       </c>
       <c r="E52" s="3">
-        <v>23098400</v>
+        <v>22331100</v>
       </c>
       <c r="F52" s="3">
-        <v>19530800</v>
+        <v>18882000</v>
       </c>
       <c r="G52" s="3">
-        <v>18745500</v>
+        <v>18122800</v>
       </c>
       <c r="H52" s="3">
-        <v>15522100</v>
+        <v>15006400</v>
       </c>
       <c r="I52" s="3">
-        <v>14006600</v>
+        <v>13541400</v>
       </c>
       <c r="J52" s="3">
-        <v>12655500</v>
+        <v>12235100</v>
       </c>
       <c r="K52" s="3">
         <v>10005700</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1983,37 +1948,37 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>236314000</v>
+        <v>228464000</v>
       </c>
       <c r="E54" s="3">
-        <v>236789000</v>
+        <v>228923000</v>
       </c>
       <c r="F54" s="3">
-        <v>222409000</v>
+        <v>215020000</v>
       </c>
       <c r="G54" s="3">
-        <v>214789000</v>
+        <v>207654000</v>
       </c>
       <c r="H54" s="3">
-        <v>215398000</v>
+        <v>208242000</v>
       </c>
       <c r="I54" s="3">
-        <v>205239000</v>
+        <v>198421000</v>
       </c>
       <c r="J54" s="3">
-        <v>187990000</v>
+        <v>181745000</v>
       </c>
       <c r="K54" s="3">
         <v>166449000</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2027,7 +1992,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2041,187 +2006,187 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>28607100</v>
+        <v>27656800</v>
       </c>
       <c r="E57" s="3">
-        <v>30651900</v>
+        <v>29633600</v>
       </c>
       <c r="F57" s="3">
-        <v>26732900</v>
+        <v>25844900</v>
       </c>
       <c r="G57" s="3">
-        <v>19905300</v>
+        <v>19244100</v>
       </c>
       <c r="H57" s="3">
-        <v>30118800</v>
+        <v>29118300</v>
       </c>
       <c r="I57" s="3">
-        <v>30758000</v>
+        <v>29736200</v>
       </c>
       <c r="J57" s="3">
-        <v>34317100</v>
+        <v>33177200</v>
       </c>
       <c r="K57" s="3">
         <v>28025100</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>9071900</v>
+        <v>8770500</v>
       </c>
       <c r="E58" s="3">
-        <v>11969100</v>
+        <v>11571500</v>
       </c>
       <c r="F58" s="3">
-        <v>11103900</v>
+        <v>10735000</v>
       </c>
       <c r="G58" s="3">
-        <v>17133300</v>
+        <v>16564200</v>
       </c>
       <c r="H58" s="3">
-        <v>26438900</v>
+        <v>25560700</v>
       </c>
       <c r="I58" s="3">
-        <v>24319900</v>
+        <v>23512100</v>
       </c>
       <c r="J58" s="3">
-        <v>17212900</v>
+        <v>16641100</v>
       </c>
       <c r="K58" s="3">
         <v>11688600</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>46187300</v>
+        <v>44653000</v>
       </c>
       <c r="E59" s="3">
-        <v>43374600</v>
+        <v>41933800</v>
       </c>
       <c r="F59" s="3">
-        <v>34222600</v>
+        <v>33085800</v>
       </c>
       <c r="G59" s="3">
-        <v>31650200</v>
+        <v>30598800</v>
       </c>
       <c r="H59" s="3">
-        <v>33120100</v>
+        <v>32019900</v>
       </c>
       <c r="I59" s="3">
-        <v>29786200</v>
+        <v>28796700</v>
       </c>
       <c r="J59" s="3">
-        <v>24659700</v>
+        <v>23840500</v>
       </c>
       <c r="K59" s="3">
         <v>24892100</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>83866200</v>
+        <v>81080300</v>
       </c>
       <c r="E60" s="3">
-        <v>85995600</v>
+        <v>83138900</v>
       </c>
       <c r="F60" s="3">
-        <v>72059400</v>
+        <v>69665700</v>
       </c>
       <c r="G60" s="3">
-        <v>68688900</v>
+        <v>66407100</v>
       </c>
       <c r="H60" s="3">
-        <v>89677800</v>
+        <v>86698800</v>
       </c>
       <c r="I60" s="3">
-        <v>84864100</v>
+        <v>82045000</v>
       </c>
       <c r="J60" s="3">
-        <v>76189700</v>
+        <v>73658800</v>
       </c>
       <c r="K60" s="3">
         <v>64605800</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>13880300</v>
+        <v>13419300</v>
       </c>
       <c r="E61" s="3">
-        <v>14711000</v>
+        <v>14222300</v>
       </c>
       <c r="F61" s="3">
-        <v>17430200</v>
+        <v>16851200</v>
       </c>
       <c r="G61" s="3">
-        <v>20739700</v>
+        <v>20050800</v>
       </c>
       <c r="H61" s="3">
-        <v>22399800</v>
+        <v>21655700</v>
       </c>
       <c r="I61" s="3">
-        <v>21607000</v>
+        <v>20889300</v>
       </c>
       <c r="J61" s="3">
-        <v>24059600</v>
+        <v>23260400</v>
       </c>
       <c r="K61" s="3">
         <v>22462700</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
-        <v>11449500</v>
+        <v>11069200</v>
       </c>
       <c r="E62" s="3">
-        <v>9504800</v>
+        <v>9189000</v>
       </c>
       <c r="F62" s="3">
-        <v>9555400</v>
+        <v>9238000</v>
       </c>
       <c r="G62" s="3">
-        <v>8389500</v>
+        <v>8110800</v>
       </c>
       <c r="H62" s="3">
-        <v>7509800</v>
+        <v>7260400</v>
       </c>
       <c r="I62" s="3">
-        <v>6511900</v>
+        <v>6295600</v>
       </c>
       <c r="J62" s="3">
-        <v>6406600</v>
+        <v>6193700</v>
       </c>
       <c r="K62" s="3">
         <v>5597200</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2251,7 +2216,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2281,7 +2246,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2311,37 +2276,37 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>129862000</v>
+        <v>125548000</v>
       </c>
       <c r="E66" s="3">
-        <v>129025000</v>
+        <v>124739000</v>
       </c>
       <c r="F66" s="3">
-        <v>116890000</v>
+        <v>113007000</v>
       </c>
       <c r="G66" s="3">
-        <v>114435000</v>
+        <v>110633000</v>
       </c>
       <c r="H66" s="3">
-        <v>127384000</v>
+        <v>123153000</v>
       </c>
       <c r="I66" s="3">
-        <v>120823000</v>
+        <v>116809000</v>
       </c>
       <c r="J66" s="3">
-        <v>112165000</v>
+        <v>108439000</v>
       </c>
       <c r="K66" s="3">
         <v>97758000</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2355,7 +2320,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2385,7 +2350,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2415,7 +2380,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2410,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2475,37 +2440,37 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>80195300</v>
+        <v>77531300</v>
       </c>
       <c r="E72" s="3">
-        <v>81506600</v>
+        <v>78799100</v>
       </c>
       <c r="F72" s="3">
-        <v>79198800</v>
+        <v>76568000</v>
       </c>
       <c r="G72" s="3">
-        <v>75103900</v>
+        <v>72609100</v>
       </c>
       <c r="H72" s="3">
-        <v>65169200</v>
+        <v>63004400</v>
       </c>
       <c r="I72" s="3">
-        <v>61797900</v>
+        <v>59745100</v>
       </c>
       <c r="J72" s="3">
-        <v>58627400</v>
+        <v>56679900</v>
       </c>
       <c r="K72" s="3">
         <v>52025800</v>
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2535,7 +2500,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2565,7 +2530,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2595,37 +2560,37 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>106452000</v>
+        <v>102916000</v>
       </c>
       <c r="E76" s="3">
-        <v>107764000</v>
+        <v>104184000</v>
       </c>
       <c r="F76" s="3">
-        <v>105519000</v>
+        <v>102013000</v>
       </c>
       <c r="G76" s="3">
-        <v>100354000</v>
+        <v>97020700</v>
       </c>
       <c r="H76" s="3">
-        <v>88013200</v>
+        <v>85089500</v>
       </c>
       <c r="I76" s="3">
-        <v>84416100</v>
+        <v>81611900</v>
       </c>
       <c r="J76" s="3">
-        <v>75824700</v>
+        <v>73305900</v>
       </c>
       <c r="K76" s="3">
         <v>68690700</v>
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2655,12 +2620,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2690,37 +2655,37 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>9144700</v>
+        <v>8841000</v>
       </c>
       <c r="E81" s="3">
-        <v>7605100</v>
+        <v>7352500</v>
       </c>
       <c r="F81" s="3">
-        <v>6926600</v>
+        <v>6696500</v>
       </c>
       <c r="G81" s="3">
-        <v>4825100</v>
+        <v>4664800</v>
       </c>
       <c r="H81" s="3">
-        <v>6896000</v>
+        <v>6666900</v>
       </c>
       <c r="I81" s="3">
-        <v>9814700</v>
+        <v>9488600</v>
       </c>
       <c r="J81" s="3">
-        <v>9480300</v>
+        <v>9165400</v>
       </c>
       <c r="K81" s="3">
         <v>10649100</v>
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2734,37 +2699,37 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
-        <v>16320200</v>
+        <v>15778100</v>
       </c>
       <c r="E83" s="3">
-        <v>17113200</v>
+        <v>16544700</v>
       </c>
       <c r="F83" s="3">
-        <v>16091400</v>
+        <v>15556800</v>
       </c>
       <c r="G83" s="3">
-        <v>14315600</v>
+        <v>13840100</v>
       </c>
       <c r="H83" s="3">
-        <v>13371300</v>
+        <v>12927100</v>
       </c>
       <c r="I83" s="3">
-        <v>12060500</v>
+        <v>11659900</v>
       </c>
       <c r="J83" s="3">
-        <v>10456400</v>
+        <v>10109000</v>
       </c>
       <c r="K83" s="3">
         <v>9280800</v>
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2794,7 +2759,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2824,7 +2789,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2854,7 +2819,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2884,7 +2849,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2914,37 +2879,37 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
-        <v>26100600</v>
+        <v>25233500</v>
       </c>
       <c r="E89" s="3">
-        <v>28336700</v>
+        <v>27395400</v>
       </c>
       <c r="F89" s="3">
-        <v>31840300</v>
+        <v>30782600</v>
       </c>
       <c r="G89" s="3">
-        <v>24597500</v>
+        <v>23780400</v>
       </c>
       <c r="H89" s="3">
-        <v>22016200</v>
+        <v>21284800</v>
       </c>
       <c r="I89" s="3">
-        <v>22542400</v>
+        <v>21793600</v>
       </c>
       <c r="J89" s="3">
-        <v>21130600</v>
+        <v>20428700</v>
       </c>
       <c r="K89" s="3">
         <v>21905000</v>
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2958,37 +2923,37 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
-        <v>-14062300</v>
+        <v>-13595200</v>
       </c>
       <c r="E91" s="3">
-        <v>-9430100</v>
+        <v>-9116900</v>
       </c>
       <c r="F91" s="3">
-        <v>-9716000</v>
+        <v>-9393200</v>
       </c>
       <c r="G91" s="3">
-        <v>-14172400</v>
+        <v>-13701600</v>
       </c>
       <c r="H91" s="3">
-        <v>-16777300</v>
+        <v>-16220000</v>
       </c>
       <c r="I91" s="3">
-        <v>-21515300</v>
+        <v>-20800600</v>
       </c>
       <c r="J91" s="3">
-        <v>-21617800</v>
+        <v>-20899700</v>
       </c>
       <c r="K91" s="3">
         <v>-19158500</v>
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3018,7 +2983,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3048,37 +3013,37 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
-        <v>-9857700</v>
+        <v>-9530200</v>
       </c>
       <c r="E94" s="3">
-        <v>-21567400</v>
+        <v>-20850900</v>
       </c>
       <c r="F94" s="3">
-        <v>-9827300</v>
+        <v>-9500800</v>
       </c>
       <c r="G94" s="3">
-        <v>-17322300</v>
+        <v>-16746800</v>
       </c>
       <c r="H94" s="3">
-        <v>-19684100</v>
+        <v>-19030200</v>
       </c>
       <c r="I94" s="3">
-        <v>-26526800</v>
+        <v>-25645600</v>
       </c>
       <c r="J94" s="3">
-        <v>-24071700</v>
+        <v>-23272000</v>
       </c>
       <c r="K94" s="3">
         <v>-20425500</v>
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3092,37 +3057,37 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
-        <v>-10062000</v>
+        <v>-9727800</v>
       </c>
       <c r="E96" s="3">
-        <v>-4851400</v>
+        <v>-4690200</v>
       </c>
       <c r="F96" s="3">
-        <v>-2504600</v>
+        <v>-2421400</v>
       </c>
       <c r="G96" s="3">
-        <v>-3593600</v>
+        <v>-3474200</v>
       </c>
       <c r="H96" s="3">
-        <v>-4160100</v>
+        <v>-4021900</v>
       </c>
       <c r="I96" s="3">
-        <v>-4199700</v>
+        <v>-4060200</v>
       </c>
       <c r="J96" s="3">
-        <v>-3782400</v>
+        <v>-3656700</v>
       </c>
       <c r="K96" s="3">
         <v>-2831400</v>
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3152,7 +3117,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3182,7 +3147,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3212,57 +3177,57 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
-        <v>-16512100</v>
+        <v>-15963600</v>
       </c>
       <c r="E100" s="3">
-        <v>-8386500</v>
+        <v>-8107900</v>
       </c>
       <c r="F100" s="3">
-        <v>-13809100</v>
+        <v>-13350400</v>
       </c>
       <c r="G100" s="3">
-        <v>1349500</v>
+        <v>1304700</v>
       </c>
       <c r="H100" s="3">
-        <v>-3179100</v>
+        <v>-3073500</v>
       </c>
       <c r="I100" s="3">
-        <v>4677700</v>
+        <v>4522300</v>
       </c>
       <c r="J100" s="3">
-        <v>835300</v>
+        <v>807500</v>
       </c>
       <c r="K100" s="3">
         <v>-365900</v>
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
-        <v>76900</v>
+        <v>74300</v>
       </c>
       <c r="E101" s="3">
-        <v>-52400</v>
+        <v>-50600</v>
       </c>
       <c r="F101" s="3">
-        <v>38000</v>
+        <v>36700</v>
       </c>
       <c r="G101" s="3">
-        <v>43500</v>
+        <v>42000</v>
       </c>
       <c r="H101" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I101" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="J101" s="3">
         <v>-300</v>
@@ -3272,30 +3237,30 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
-        <v>-192300</v>
+        <v>-186000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1669600</v>
+        <v>-1614200</v>
       </c>
       <c r="F102" s="3">
-        <v>8241900</v>
+        <v>7968200</v>
       </c>
       <c r="G102" s="3">
-        <v>8668200</v>
+        <v>8380200</v>
       </c>
       <c r="H102" s="3">
-        <v>-844600</v>
+        <v>-816500</v>
       </c>
       <c r="I102" s="3">
-        <v>681200</v>
+        <v>658600</v>
       </c>
       <c r="J102" s="3">
-        <v>-2106100</v>
+        <v>-2036100</v>
       </c>
       <c r="K102" s="3">
         <v>1110900</v>
